--- a/ME_ADVANCE_CONTROL_2023/1_AUGUST_ATTENDANCE_SUBMITTED_DPG.xlsx
+++ b/ME_ADVANCE_CONTROL_2023/1_AUGUST_ATTENDANCE_SUBMITTED_DPG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAHIM BHUTTO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAHIM BHUTTO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD2258D-5669-4352-9945-84D5E712A6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C386CD7-EF9F-428F-A61A-8644F653E34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="August" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">August!$A$1:$K$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">August!$A$1:$K$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -143,10 +143,7 @@
     <t>23MEEP-09</t>
   </si>
   <si>
-    <t>23MEEP-10</t>
-  </si>
-  <si>
-    <t>23MEEP-11</t>
+    <t>21MEEP-14</t>
   </si>
 </sst>
 </file>
@@ -494,6 +491,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -521,9 +528,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -535,13 +539,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,10 +879,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:I5"/>
+      <selection activeCell="D13" sqref="D13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -907,118 +904,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="35" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="35" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="37" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1032,10 +1029,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -1055,16 +1052,16 @@
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="18" t="s">
         <v>13</v>
       </c>
@@ -1082,12 +1079,12 @@
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="33"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="21" t="s">
         <v>10</v>
       </c>
@@ -1115,19 +1112,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -1152,11 +1149,11 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="8">
-        <f t="shared" ref="J14:J24" si="0">SUM(D14:I14)</f>
+        <f t="shared" ref="J14:J23" si="0">SUM(D14:I14)</f>
         <v>12</v>
       </c>
       <c r="K14" s="19">
-        <f t="shared" ref="K14:K24" si="1">(J14/$J$12)*100</f>
+        <f t="shared" ref="K14:K23" si="1">(J14/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -1439,85 +1436,44 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>11</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="15">
-        <v>3</v>
-      </c>
-      <c r="E24" s="15">
-        <v>3</v>
-      </c>
-      <c r="F24" s="15">
-        <v>3</v>
-      </c>
-      <c r="G24" s="15">
-        <v>3</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K24" s="19">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+    <row r="24" spans="1:11" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="26"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="H25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="40"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="40"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F28" s="3"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -1529,6 +1485,16 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>

--- a/ME_ADVANCE_CONTROL_2023/1_AUGUST_ATTENDANCE_SUBMITTED_DPG.xlsx
+++ b/ME_ADVANCE_CONTROL_2023/1_AUGUST_ATTENDANCE_SUBMITTED_DPG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAHIM BHUTTO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C386CD7-EF9F-428F-A61A-8644F653E34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09E3CCB-8513-4ED1-B983-6256BF8EE81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="August" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">August!$A$1:$K$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">August!$A$1:$J$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -494,51 +494,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,10 +881,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:K13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -890,178 +892,165 @@
     <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-    </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28" t="s">
+      <c r="D6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="40" t="s">
+      <c r="D8" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="20">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E10" s="20">
-        <v>13</v>
-      </c>
-      <c r="F10" s="20">
         <v>20</v>
       </c>
-      <c r="G10" s="18">
+      <c r="F10" s="18">
         <v>27</v>
       </c>
+      <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="41" t="s">
+      <c r="I10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="J10" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="33"/>
+    <row r="11" spans="1:10" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="18" t="s">
         <v>13</v>
       </c>
@@ -1074,17 +1063,14 @@
       <c r="F11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>24</v>
-      </c>
+      <c r="G11" s="22"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="37"/>
-    </row>
-    <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="33"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="21" t="s">
         <v>10</v>
       </c>
@@ -1097,36 +1083,32 @@
       <c r="F12" s="16">
         <v>3</v>
       </c>
-      <c r="G12" s="16">
-        <v>3</v>
-      </c>
+      <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17">
-        <f>SUM(D12:I12)</f>
-        <v>12</v>
-      </c>
-      <c r="K12" s="23">
-        <f>(J12/$J$12)*100</f>
+      <c r="I12" s="17">
+        <f>SUM(D12:H12)</f>
+        <v>9</v>
+      </c>
+      <c r="J12" s="23">
+        <f>(I12/$I$12)*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="33"/>
+    <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -1143,21 +1125,18 @@
       <c r="F14" s="15">
         <v>3</v>
       </c>
-      <c r="G14" s="15">
-        <v>3</v>
-      </c>
+      <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="8">
-        <f t="shared" ref="J14:J23" si="0">SUM(D14:I14)</f>
-        <v>12</v>
-      </c>
-      <c r="K14" s="19">
-        <f t="shared" ref="K14:K23" si="1">(J14/$J$12)*100</f>
+      <c r="I14" s="8">
+        <f>SUM(D14:H14)</f>
+        <v>9</v>
+      </c>
+      <c r="J14" s="19">
+        <f t="shared" ref="J14:J23" si="0">(I14/$I$12)*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>2</v>
       </c>
@@ -1174,21 +1153,18 @@
       <c r="F15" s="15">
         <v>3</v>
       </c>
-      <c r="G15" s="15">
-        <v>3</v>
-      </c>
+      <c r="G15" s="15"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="8">
+      <c r="I15" s="8">
+        <f>SUM(D15:H15)</f>
+        <v>9</v>
+      </c>
+      <c r="J15" s="19">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K15" s="19">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>3</v>
       </c>
@@ -1205,21 +1181,18 @@
       <c r="F16" s="15">
         <v>3</v>
       </c>
-      <c r="G16" s="15">
-        <v>3</v>
-      </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="8">
+      <c r="I16" s="8">
+        <f>SUM(D16:H16)</f>
+        <v>9</v>
+      </c>
+      <c r="J16" s="19">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K16" s="19">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>4</v>
       </c>
@@ -1236,21 +1209,18 @@
       <c r="F17" s="15">
         <v>3</v>
       </c>
-      <c r="G17" s="15">
-        <v>3</v>
-      </c>
+      <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="8">
+      <c r="I17" s="8">
+        <f>SUM(D17:H17)</f>
+        <v>9</v>
+      </c>
+      <c r="J17" s="19">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K17" s="19">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>5</v>
       </c>
@@ -1267,21 +1237,18 @@
       <c r="F18" s="15">
         <v>3</v>
       </c>
-      <c r="G18" s="15">
-        <v>3</v>
-      </c>
+      <c r="G18" s="15"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="8">
+      <c r="I18" s="8">
+        <f>SUM(D18:H18)</f>
+        <v>9</v>
+      </c>
+      <c r="J18" s="19">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K18" s="19">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>6</v>
       </c>
@@ -1298,21 +1265,18 @@
       <c r="F19" s="15">
         <v>3</v>
       </c>
-      <c r="G19" s="15">
-        <v>3</v>
-      </c>
+      <c r="G19" s="15"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="8">
+      <c r="I19" s="8">
+        <f>SUM(D19:H19)</f>
+        <v>9</v>
+      </c>
+      <c r="J19" s="19">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K19" s="19">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>7</v>
       </c>
@@ -1329,21 +1293,18 @@
       <c r="F20" s="15">
         <v>3</v>
       </c>
-      <c r="G20" s="15">
-        <v>3</v>
-      </c>
+      <c r="G20" s="15"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="8">
+      <c r="I20" s="8">
+        <f>SUM(D20:H20)</f>
+        <v>9</v>
+      </c>
+      <c r="J20" s="19">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K20" s="19">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>8</v>
       </c>
@@ -1360,21 +1321,18 @@
       <c r="F21" s="15">
         <v>3</v>
       </c>
-      <c r="G21" s="15">
-        <v>3</v>
-      </c>
+      <c r="G21" s="15"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="8">
+      <c r="I21" s="8">
+        <f>SUM(D21:H21)</f>
+        <v>9</v>
+      </c>
+      <c r="J21" s="19">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K21" s="19">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>9</v>
       </c>
@@ -1391,21 +1349,18 @@
       <c r="F22" s="15">
         <v>3</v>
       </c>
-      <c r="G22" s="15">
-        <v>3</v>
-      </c>
+      <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="8">
+      <c r="I22" s="8">
+        <f>SUM(D22:H22)</f>
+        <v>9</v>
+      </c>
+      <c r="J22" s="19">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K22" s="19">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>10</v>
       </c>
@@ -1422,79 +1377,66 @@
       <c r="F23" s="15">
         <v>3</v>
       </c>
-      <c r="G23" s="15">
-        <v>3</v>
-      </c>
+      <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="8">
+      <c r="I23" s="8">
+        <f>SUM(D23:H23)</f>
+        <v>9</v>
+      </c>
+      <c r="J23" s="19">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K23" s="19">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="26" t="s">
+      <c r="G25" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="26"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H25" s="41"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F27" s="3"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E27" s="3"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="14">
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="C1:H1"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="D13:J13"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I10:I11"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
